--- a/Input_data/Planetary_boundaries/Water_consumption_2050_scenarios.xlsx
+++ b/Input_data/Planetary_boundaries/Water_consumption_2050_scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\school-les-m.shares.deakin.edu.au\school-les-m\Planet-A\Food-Systems\Meta_analysis\GFSS-MM\Input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LES\Burwood\Planet-A\Food-Systems\Meta_analysis\GFSI-MRM\GFSI-MRM\Input_data\Planetary_boundaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8B0F4-D521-4868-893A-C68C37860704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568104EB-B49E-48C1-BA65-18C98C885F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Michalis Hadjikakou</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E3DE2B3E-7561-4CB6-8F2F-D4915446D236}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E3DE2B3E-7561-4CB6-8F2F-D4915446D236}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michalis Hadjikakou:</t>
         </r>
@@ -53,14 +53,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is all agriculture = Irrigation + livestock</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9A9A539D-B5CA-4867-A402-F28B4D618D06}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9A9A539D-B5CA-4867-A402-F28B4D618D06}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michalis Hadjikakou:</t>
         </r>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This includes water consumption from industry and households.</t>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Springmann et al. (2018)</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>UNCCD (2017)</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Shiklomanov (2000)</t>
-  </si>
-  <si>
     <t>Graham et al. (2018)</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>BAU - 2090</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>POP6/MDG-</t>
   </si>
   <si>
@@ -232,26 +220,71 @@
     <t>POP14/MDG+</t>
   </si>
   <si>
-    <t>Ercin &amp; Hoekstra (2014)</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
+    <t>Irr_withdrawals</t>
+  </si>
+  <si>
+    <t>Other_withdrawals</t>
+  </si>
+  <si>
+    <t>Alcamo et al. (2007)</t>
+  </si>
+  <si>
+    <t>2055 (A2)</t>
+  </si>
+  <si>
+    <t>2055 (B2)</t>
+  </si>
+  <si>
+    <t>Total_withdrawals</t>
+  </si>
+  <si>
+    <t>Irr_consumption</t>
+  </si>
+  <si>
+    <t>Other_consumption</t>
+  </si>
+  <si>
+    <t>Total_consumption</t>
+  </si>
+  <si>
+    <t>Ratio_withdrawals</t>
+  </si>
+  <si>
+    <t>OECD (2012)</t>
+  </si>
+  <si>
+    <t>Ratio_consumption</t>
+  </si>
+  <si>
+    <t>Bijl et al. (2018)</t>
+  </si>
+  <si>
+    <t>HighMI_2p6</t>
+  </si>
+  <si>
+    <t>High_MI</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Reference_2p6</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SS_2p6</t>
+  </si>
+  <si>
+    <t>Graham et al. (2023)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,14 +424,35 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -698,7 +752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -742,17 +796,24 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -766,11 +827,17 @@
     <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="45" xr:uid="{AC0C57A3-3CA2-4785-970F-70B92D6CA385}"/>
     <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="46" xr:uid="{49C5C8E9-BF77-422A-ACB0-2B06E96F60D6}"/>
     <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="47" xr:uid="{6B425856-7D89-4624-9989-170B5CCED53B}"/>
     <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="48" xr:uid="{D34DD088-6144-4AA9-9367-71CC23F18212}"/>
     <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="49" xr:uid="{66C92364-18CF-4D8F-8098-7BEC25790D76}"/>
     <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="50" xr:uid="{4834D1E6-1FE5-4842-9EEF-234A61760C00}"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
@@ -789,11 +856,13 @@
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="44" xr:uid="{C28F20C0-D2E9-4B1E-B65A-4E0CCED37C19}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="43" xr:uid="{D56B3972-79A0-426E-9C19-50B93FE4C32A}"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -811,9 +880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,9 +920,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,26 +955,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,26 +990,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,741 +1166,1254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>E2-C2</f>
+        <v>3500</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5500</v>
+      </c>
+      <c r="F2" s="4">
+        <f>C2/E2</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2282</v>
+      </c>
+      <c r="D3" s="4">
+        <f>E3-C3</f>
+        <v>2843</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5125</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3/E3</f>
+        <v>0.44526829268292684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2256</v>
+      </c>
+      <c r="D4" s="4">
+        <f>E4-C4</f>
+        <v>2675</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4931</v>
+      </c>
+      <c r="F4" s="4">
+        <f>C4/E4</f>
+        <v>0.45751368890691541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1810.54</v>
+      </c>
+      <c r="H5">
+        <v>452.07</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(H5,G5)</f>
+        <v>2262.61</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J38" si="0">G5/I5</f>
+        <v>0.80019976929298464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1987.54475</v>
+      </c>
+      <c r="H6">
+        <v>457.51</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I25" si="1">SUM(H6,G6)</f>
+        <v>2445.0547500000002</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.8128835356345292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2130.89</v>
+      </c>
+      <c r="H7">
+        <v>415.15</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>2546.04</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.83694286028499154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2252</v>
-      </c>
-      <c r="B2">
-        <v>512.1</v>
-      </c>
-      <c r="C2" s="1">
-        <f>SUM(B2,A2)</f>
-        <v>2764.1</v>
-      </c>
-      <c r="D2">
-        <v>2025</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1810.54</v>
-      </c>
-      <c r="B3">
-        <v>452.07</v>
-      </c>
-      <c r="C3" s="1">
-        <f>SUM(B3,A3)</f>
-        <v>2262.61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1987.54475</v>
-      </c>
-      <c r="B4">
-        <v>457.51</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C23" si="0">SUM(B4,A4)</f>
-        <v>2445.0547500000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2130.89</v>
-      </c>
-      <c r="B5">
-        <v>415.15</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>2546.04</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
         <f>2707</f>
         <v>2707</v>
       </c>
-      <c r="B6">
+      <c r="H8" s="4">
         <v>587.20000000000005</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
         <v>3294.2</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82174731346002072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2085</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>2335</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.89293361884368305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1985</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>2235</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.88814317673378074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2085</v>
-      </c>
-      <c r="B7">
-        <v>250</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>2335</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>4805</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D16" si="2">E11-C11</f>
+        <v>1390</v>
+      </c>
+      <c r="E11">
+        <v>6195</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F16" si="3">C11/E11</f>
+        <v>0.77562550443906375</v>
+      </c>
+      <c r="G11">
+        <v>1920</v>
+      </c>
+      <c r="H11">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>2185.6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.87847730600292828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>5700</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1603</v>
+      </c>
+      <c r="E12">
+        <v>7303</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.78050116390524438</v>
+      </c>
+      <c r="G12">
+        <v>2277</v>
+      </c>
+      <c r="H12">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>2585.9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.88054449127963186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>6297</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1703</v>
+      </c>
+      <c r="E13">
+        <v>8000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.78712499999999996</v>
+      </c>
+      <c r="G13">
+        <v>2481</v>
+      </c>
+      <c r="H13">
+        <v>319.7</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>2800.7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.88584996607990862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>6510</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1850</v>
+      </c>
+      <c r="E14">
+        <v>8360</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.7787081339712919</v>
+      </c>
+      <c r="G14">
+        <v>2576</v>
+      </c>
+      <c r="H14">
+        <v>346.8</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>2922.8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.88134665389352673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>6430</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1744</v>
+      </c>
+      <c r="E15">
+        <v>8174</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.78664056765353563</v>
+      </c>
+      <c r="G15">
+        <v>2533</v>
+      </c>
+      <c r="H15">
+        <v>330.4</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>2863.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.88461269819096178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>6573</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2117</v>
+      </c>
+      <c r="E16">
+        <v>8690</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.75638665132336014</v>
+      </c>
+      <c r="G16">
+        <v>2584</v>
+      </c>
+      <c r="H16">
+        <v>373.8</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>2957.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.87362228683480958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="str">
+        <f>CONCATENATE(B11,"2095")</f>
+        <v>POP6/MDG-2095</v>
+      </c>
+      <c r="G17">
+        <v>1536</v>
+      </c>
+      <c r="H17" s="1">
+        <f>I17-G17</f>
+        <v>252</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1788</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.85906040268456374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:B20" si="4">CONCATENATE(B12,"2095")</f>
+        <v>POP6/MDG+2095</v>
+      </c>
+      <c r="G18">
+        <v>1916</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:H20" si="5">I18-G18</f>
+        <v>341</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2257</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.8489144882587506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="4"/>
+        <v>POP9/MDG-2095</v>
+      </c>
+      <c r="G19">
+        <v>2773</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>421</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3194</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.86819035691922353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="4"/>
+        <v>POP9/MDG+2095</v>
+      </c>
+      <c r="G20">
+        <v>2925</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>485</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3410</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.85777126099706746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>1810</v>
+      </c>
+      <c r="H21">
+        <v>740</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.70980392156862748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>1985</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>2235</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1920</v>
-      </c>
-      <c r="B9">
-        <v>265.60000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>2185.6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>2070.2687999999998</v>
+      </c>
+      <c r="H22">
+        <v>233.31</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>2303.5787999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.8987184636358001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2277</v>
-      </c>
-      <c r="B10">
-        <v>308.89999999999998</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>2585.9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2481</v>
-      </c>
-      <c r="B11">
-        <v>319.7</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>2800.7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2576</v>
-      </c>
-      <c r="B12">
-        <v>346.8</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>2922.8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2533</v>
-      </c>
-      <c r="B13">
-        <v>330.4</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>2863.4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2584</v>
-      </c>
-      <c r="B14" s="5">
-        <v>373.8</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>2957.8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1536</v>
-      </c>
-      <c r="B15" s="6">
-        <f>C15-A15</f>
-        <v>252</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1788</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>CONCATENATE(D9,"2095")</f>
-        <v>POP6/MDG-2095</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1916</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" ref="B16:B18" si="1">C16-A16</f>
-        <v>341</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2257</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" ref="D16:D18" si="2">CONCATENATE(D10,"2095")</f>
-        <v>POP6/MDG+2095</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2773</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="1"/>
-        <v>421</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3194</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>POP9/MDG-2095</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2925</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="1"/>
-        <v>485</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3410</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>POP9/MDG+2095</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1810</v>
-      </c>
-      <c r="B19">
-        <v>740</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>2550</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2070.2687999999998</v>
-      </c>
-      <c r="B20">
-        <v>233.31</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>2303.5787999999998</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
         <v>1655</v>
       </c>
-      <c r="B21">
+      <c r="H23">
         <f>551+623</f>
         <v>1174</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
         <v>2829</v>
       </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.58501237186284905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24">
         <v>1494</v>
       </c>
-      <c r="B22">
+      <c r="H24">
         <f>489+470</f>
         <v>959</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
         <v>2453</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.60905014268242963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
         <v>1422</v>
       </c>
-      <c r="B23">
+      <c r="H25">
         <f>348+337</f>
         <v>685</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
         <v>2107</v>
       </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.67489321309919315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1010</v>
+      </c>
+      <c r="H26">
         <v>395</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" t="s">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1930</v>
+      </c>
+      <c r="H27">
+        <v>578</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>578</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
+      <c r="D28">
+        <v>2876</v>
+      </c>
+      <c r="H28">
+        <v>616</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>616</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="C29">
+        <v>4012</v>
+      </c>
+      <c r="D29">
+        <f>E29-C29</f>
+        <v>1992</v>
+      </c>
+      <c r="E29">
+        <v>6004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F38" si="6">C29/E29</f>
+        <v>0.66822118587608259</v>
+      </c>
+      <c r="G29">
         <v>1642.0498875429996</v>
       </c>
-      <c r="B27">
-        <f>C27-A27</f>
+      <c r="H29">
+        <f>I29-G29</f>
         <v>397.23419042299975</v>
       </c>
-      <c r="C27">
+      <c r="I29">
         <v>2039.2840779659994</v>
       </c>
-      <c r="D27" t="s">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.80520899725789807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>3749</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D38" si="7">E30-C30</f>
+        <v>2157</v>
+      </c>
+      <c r="E30">
+        <v>5906</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>0.63477819166948868</v>
+      </c>
+      <c r="G30">
+        <v>1557.17074901</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H38" si="8">I30-G30</f>
+        <v>436.75825099000008</v>
+      </c>
+      <c r="I30">
+        <v>1993.9290000000001</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.78095596634082753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>3596</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>1947</v>
+      </c>
+      <c r="E31">
+        <v>5543</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>0.64874616633591919</v>
+      </c>
+      <c r="G31">
+        <v>1503.4730159349997</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>417.25098406500024</v>
+      </c>
+      <c r="I31">
+        <v>1920.7239999999999</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.78276369532270107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1557.17074901</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B36" si="3">C28-A28</f>
-        <v>436.75825099000008</v>
-      </c>
-      <c r="C28">
-        <v>1993.9290000000001</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C32">
+        <v>3416</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>1982</v>
+      </c>
+      <c r="E32">
+        <v>5398</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0.63282697295294554</v>
+      </c>
+      <c r="G32">
+        <v>1408.4425314920002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>419.33146850799972</v>
+      </c>
+      <c r="I32">
+        <v>1827.7739999999999</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.77057805368278587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1503.4730159349997</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="3"/>
-        <v>417.25098406500024</v>
-      </c>
-      <c r="C29">
-        <v>1920.7239999999999</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C33">
+        <v>3943</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>2640</v>
+      </c>
+      <c r="E33">
+        <v>6583</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0.59896703630563575</v>
+      </c>
+      <c r="G33">
+        <v>1621.8989078100003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>482.36509218999981</v>
+      </c>
+      <c r="I33">
+        <v>2104.2640000000001</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.77076778760174591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1408.4425314920002</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="3"/>
-        <v>419.33146850799972</v>
-      </c>
-      <c r="C30">
-        <v>1827.7739999999999</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C34">
+        <v>3297</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>1667</v>
+      </c>
+      <c r="E34">
+        <v>4964</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>0.66418211120064463</v>
+      </c>
+      <c r="G34">
+        <v>1661.7708963570001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>326.85210364299996</v>
+      </c>
+      <c r="I34">
+        <v>1988.623</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.83563898051918339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1621.8989078100003</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="3"/>
-        <v>482.36509218999981</v>
-      </c>
-      <c r="C31">
-        <v>2104.2640000000001</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C35">
+        <v>3474</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>1972</v>
+      </c>
+      <c r="E35">
+        <v>5446</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>0.6378993756885788</v>
+      </c>
+      <c r="G35">
+        <v>1559.9009616469998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>398.62403835300029</v>
+      </c>
+      <c r="I35">
+        <v>1958.5250000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.7964672197939775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1661.7708963570001</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="3"/>
-        <v>326.85210364299996</v>
-      </c>
-      <c r="C32">
-        <v>1988.623</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C36">
+        <v>3596</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>1987</v>
+      </c>
+      <c r="E36">
+        <v>5583</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>0.64409815511373814</v>
+      </c>
+      <c r="G36">
+        <v>1503.2288092750002</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>411.6201907249997</v>
+      </c>
+      <c r="I36">
+        <v>1914.8489999999999</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.78503778066834529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1559.9009616469998</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="3"/>
-        <v>398.62403835300029</v>
-      </c>
-      <c r="C33">
-        <v>1958.5250000000001</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C37">
+        <v>3323</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="7"/>
+        <v>1819</v>
+      </c>
+      <c r="E37">
+        <v>5142</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0.64624659665499806</v>
+      </c>
+      <c r="G37">
+        <v>1410.2047393839998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>379.95726061600021</v>
+      </c>
+      <c r="I37">
+        <v>1790.162</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.7877525829416554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1503.2288092750002</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="3"/>
-        <v>411.6201907249997</v>
-      </c>
-      <c r="C34">
-        <v>1914.8489999999999</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C38">
+        <v>3234</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="7"/>
+        <v>2086</v>
+      </c>
+      <c r="E38">
+        <v>5320</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>0.60789473684210527</v>
+      </c>
+      <c r="G38">
+        <v>1634.2664273450002</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>396.23057265499983</v>
+      </c>
+      <c r="I38">
+        <v>2030.4970000000001</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.80486030136710385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>1800</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>2200</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>3324.93</v>
+      </c>
+      <c r="D41">
+        <f>E41-C41</f>
+        <v>2039.9261937313099</v>
+      </c>
+      <c r="E41">
+        <v>5364.8561937313098</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F46" si="9">C41/E41</f>
+        <v>0.61976125359801648</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>3226.0369999999998</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D46" si="10">E42-C42</f>
+        <v>1960.6919529696202</v>
+      </c>
+      <c r="E42">
+        <v>5186.72895296962</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>0.62197909882161051</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>3316.625</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>1986.5219860360403</v>
+      </c>
+      <c r="E43">
+        <v>5303.1469860360403</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>0.62540695340580932</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>3430.65</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>2075.0527127866103</v>
+      </c>
+      <c r="E44">
+        <v>5505.7027127866104</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>0.62310847115529044</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>3411.0259999999998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>1985.2948536847998</v>
+      </c>
+      <c r="E45">
+        <v>5396.3208536847997</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>0.63210214746049243</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>3528.8249999999998</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>2079.77325331068</v>
+      </c>
+      <c r="E46">
+        <v>5608.5982533106799</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="9"/>
+        <v>0.62918127500342569</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1410.2047393839998</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="3"/>
-        <v>379.95726061600021</v>
-      </c>
-      <c r="C35">
-        <v>1790.162</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1634.2664273450002</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="3"/>
-        <v>396.23057265499983</v>
-      </c>
-      <c r="C36">
-        <v>2030.4970000000001</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1089</v>
-      </c>
-      <c r="B37">
-        <f>48.1+204</f>
-        <v>252.1</v>
-      </c>
-      <c r="C37" s="1">
-        <f>SUM(B37,A37)</f>
-        <v>1341.1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1559.6</v>
-      </c>
-      <c r="B38">
-        <f>62.75+83.591</f>
-        <v>146.34100000000001</v>
-      </c>
-      <c r="C38" s="1">
-        <f>SUM(B38,A38)</f>
-        <v>1705.9409999999998</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1226.2180000000001</v>
-      </c>
-      <c r="B39">
-        <f>38.475+117.631</f>
-        <v>156.10599999999999</v>
-      </c>
-      <c r="C39" s="1">
-        <f>SUM(B39,A39)</f>
-        <v>1382.3240000000001</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>1566.31</v>
-      </c>
-      <c r="B40">
-        <f>44.07+105.846</f>
-        <v>149.916</v>
-      </c>
-      <c r="C40" s="1">
-        <f>SUM(B40,A40)</f>
-        <v>1716.2259999999999</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
